--- a/natmiOut/OldD2/LR-pairs_lrc2p/Btla-Tnfrsf14.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Btla-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Btla</t>
   </si>
   <si>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.78305975624935</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H2">
-        <v>1.78305975624935</v>
+        <v>0.385526</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04256045647344217</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04291740287405867</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.00059966581066</v>
+        <v>6.006796</v>
       </c>
       <c r="N2">
-        <v>6.00059966581066</v>
+        <v>12.013592</v>
       </c>
       <c r="O2">
-        <v>0.1235932233630885</v>
+        <v>0.1172526637107182</v>
       </c>
       <c r="P2">
-        <v>0.1235932233630885</v>
+        <v>0.08219975604987897</v>
       </c>
       <c r="Q2">
-        <v>10.69942777747029</v>
+        <v>0.7719253448986667</v>
       </c>
       <c r="R2">
-        <v>10.69942777747029</v>
+        <v>4.631552069392</v>
       </c>
       <c r="S2">
-        <v>0.1235932233630885</v>
+        <v>0.004990326890255176</v>
       </c>
       <c r="T2">
-        <v>0.1235932233630885</v>
+        <v>0.003527800046541997</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.78305975624935</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H3">
-        <v>1.78305975624935</v>
+        <v>0.385526</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.04256045647344217</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04291740287405867</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.71296791181461</v>
+        <v>1.914889666666667</v>
       </c>
       <c r="N3">
-        <v>1.71296791181461</v>
+        <v>5.744669</v>
       </c>
       <c r="O3">
-        <v>0.03528167808710248</v>
+        <v>0.03737864813934017</v>
       </c>
       <c r="P3">
-        <v>0.03528167808710248</v>
+        <v>0.0393063448789756</v>
       </c>
       <c r="Q3">
-        <v>3.054324147303117</v>
+        <v>0.2460799178771111</v>
       </c>
       <c r="R3">
-        <v>3.054324147303117</v>
+        <v>2.214719260894</v>
       </c>
       <c r="S3">
-        <v>0.03528167808710248</v>
+        <v>0.001590852327170498</v>
       </c>
       <c r="T3">
-        <v>0.03528167808710248</v>
+        <v>0.001686926238677689</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.78305975624935</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H4">
-        <v>1.78305975624935</v>
+        <v>0.385526</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.04256045647344217</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.04291740287405867</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0216035009788</v>
+        <v>14.26104466666667</v>
       </c>
       <c r="N4">
-        <v>12.0216035009788</v>
+        <v>42.783134</v>
       </c>
       <c r="O4">
-        <v>0.2476067075669904</v>
+        <v>0.2783756056413766</v>
       </c>
       <c r="P4">
-        <v>0.2476067075669904</v>
+        <v>0.2927320303410739</v>
       </c>
       <c r="Q4">
-        <v>21.43523740818159</v>
+        <v>1.832667835387111</v>
       </c>
       <c r="R4">
-        <v>21.43523740818159</v>
+        <v>16.494010518484</v>
       </c>
       <c r="S4">
-        <v>0.2476067075669904</v>
+        <v>0.01184779284716791</v>
       </c>
       <c r="T4">
-        <v>0.2476067075669904</v>
+        <v>0.01256329848028903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.78305975624935</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H5">
-        <v>1.78305975624935</v>
+        <v>0.385526</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.04256045647344217</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.04291740287405867</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.3856550947891</v>
+        <v>23.52939333333333</v>
       </c>
       <c r="N5">
-        <v>23.3856550947891</v>
+        <v>70.58817999999999</v>
       </c>
       <c r="O5">
-        <v>0.4816699421043527</v>
+        <v>0.4592937805496555</v>
       </c>
       <c r="P5">
-        <v>0.4816699421043527</v>
+        <v>0.4829805420397951</v>
       </c>
       <c r="Q5">
-        <v>41.69802047304602</v>
+        <v>3.023730964742223</v>
       </c>
       <c r="R5">
-        <v>41.69802047304602</v>
+        <v>27.21357868268</v>
       </c>
       <c r="S5">
-        <v>0.4816699421043527</v>
+        <v>0.01954775295560631</v>
       </c>
       <c r="T5">
-        <v>0.4816699421043527</v>
+        <v>0.02072827050305312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.78305975624935</v>
+        <v>0.1285086666666667</v>
       </c>
       <c r="H6">
-        <v>1.78305975624935</v>
+        <v>0.385526</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.04256045647344217</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.04291740287405867</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.93949277786609</v>
+        <v>3.986849</v>
       </c>
       <c r="N6">
-        <v>3.93949277786609</v>
+        <v>11.960547</v>
       </c>
       <c r="O6">
-        <v>0.08114099222553287</v>
+        <v>0.0778232963234332</v>
       </c>
       <c r="P6">
-        <v>0.08114099222553287</v>
+        <v>0.0818368099751608</v>
       </c>
       <c r="Q6">
-        <v>7.024351032247986</v>
+        <v>0.5123446491913334</v>
       </c>
       <c r="R6">
-        <v>7.024351032247986</v>
+        <v>4.611101842722</v>
       </c>
       <c r="S6">
-        <v>0.08114099222553287</v>
+        <v>0.003312195015793271</v>
       </c>
       <c r="T6">
-        <v>0.08114099222553287</v>
+        <v>0.003512223343631759</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1549 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1285086666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.385526</v>
+      </c>
+      <c r="I7">
+        <v>0.04256045647344217</v>
+      </c>
+      <c r="J7">
+        <v>0.04291740287405867</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.530533</v>
+      </c>
+      <c r="N7">
+        <v>3.061066</v>
+      </c>
+      <c r="O7">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P7">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q7">
+        <v>0.1966867551193334</v>
+      </c>
+      <c r="R7">
+        <v>1.180120530716</v>
+      </c>
+      <c r="S7">
+        <v>0.001271536437449004</v>
+      </c>
+      <c r="T7">
+        <v>0.0008988842618650714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.6763393333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.029018</v>
+      </c>
+      <c r="I8">
+        <v>0.2239950931268725</v>
+      </c>
+      <c r="J8">
+        <v>0.2258736970910308</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.006796</v>
+      </c>
+      <c r="N8">
+        <v>12.013592</v>
+      </c>
+      <c r="O8">
+        <v>0.1172526637107182</v>
+      </c>
+      <c r="P8">
+        <v>0.08219975604987897</v>
+      </c>
+      <c r="Q8">
+        <v>4.062632402109333</v>
+      </c>
+      <c r="R8">
+        <v>24.375794412656</v>
+      </c>
+      <c r="S8">
+        <v>0.0262640213272562</v>
+      </c>
+      <c r="T8">
+        <v>0.01856676279896699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.6763393333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.029018</v>
+      </c>
+      <c r="I9">
+        <v>0.2239950931268725</v>
+      </c>
+      <c r="J9">
+        <v>0.2258736970910308</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.744669</v>
+      </c>
+      <c r="O9">
+        <v>0.03737864813934017</v>
+      </c>
+      <c r="P9">
+        <v>0.0393063448789756</v>
+      </c>
+      <c r="Q9">
+        <v>1.295115200560222</v>
+      </c>
+      <c r="R9">
+        <v>11.656036805042</v>
+      </c>
+      <c r="S9">
+        <v>0.008372633770928103</v>
+      </c>
+      <c r="T9">
+        <v>0.008878269436949325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.6763393333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.029018</v>
+      </c>
+      <c r="I10">
+        <v>0.2239950931268725</v>
+      </c>
+      <c r="J10">
+        <v>0.2258736970910308</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.26104466666667</v>
+      </c>
+      <c r="N10">
+        <v>42.783134</v>
+      </c>
+      <c r="O10">
+        <v>0.2783756056413766</v>
+      </c>
+      <c r="P10">
+        <v>0.2927320303410739</v>
+      </c>
+      <c r="Q10">
+        <v>9.645305442490221</v>
+      </c>
+      <c r="R10">
+        <v>86.80774898241198</v>
+      </c>
+      <c r="S10">
+        <v>0.06235476970988969</v>
+      </c>
+      <c r="T10">
+        <v>0.06612046595010217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.6763393333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.029018</v>
+      </c>
+      <c r="I11">
+        <v>0.2239950931268725</v>
+      </c>
+      <c r="J11">
+        <v>0.2258736970910308</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>23.52939333333333</v>
+      </c>
+      <c r="N11">
+        <v>70.58817999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.4592937805496555</v>
+      </c>
+      <c r="P11">
+        <v>0.4829805420397951</v>
+      </c>
+      <c r="Q11">
+        <v>15.91385420080444</v>
+      </c>
+      <c r="R11">
+        <v>143.22468780724</v>
+      </c>
+      <c r="S11">
+        <v>0.1028795531468134</v>
+      </c>
+      <c r="T11">
+        <v>0.1090926006535586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.6763393333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.029018</v>
+      </c>
+      <c r="I12">
+        <v>0.2239950931268725</v>
+      </c>
+      <c r="J12">
+        <v>0.2258736970910308</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.986849</v>
+      </c>
+      <c r="N12">
+        <v>11.960547</v>
+      </c>
+      <c r="O12">
+        <v>0.0778232963234332</v>
+      </c>
+      <c r="P12">
+        <v>0.0818368099751608</v>
+      </c>
+      <c r="Q12">
+        <v>2.696462794760667</v>
+      </c>
+      <c r="R12">
+        <v>24.268165152846</v>
+      </c>
+      <c r="S12">
+        <v>0.01743203650740762</v>
+      </c>
+      <c r="T12">
+        <v>0.01848478282722572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.6763393333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.029018</v>
+      </c>
+      <c r="I13">
+        <v>0.2239950931268725</v>
+      </c>
+      <c r="J13">
+        <v>0.2258736970910308</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.530533</v>
+      </c>
+      <c r="N13">
+        <v>3.061066</v>
+      </c>
+      <c r="O13">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P13">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q13">
+        <v>1.035159668864667</v>
+      </c>
+      <c r="R13">
+        <v>6.210958013188</v>
+      </c>
+      <c r="S13">
+        <v>0.006692078664577492</v>
+      </c>
+      <c r="T13">
+        <v>0.004730815424228049</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.78305975624935</v>
-      </c>
-      <c r="H7">
-        <v>1.78305975624935</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.49088395880867</v>
-      </c>
-      <c r="N7">
-        <v>1.49088395880867</v>
-      </c>
-      <c r="O7">
-        <v>0.03070745665293309</v>
-      </c>
-      <c r="P7">
-        <v>0.03070745665293309</v>
-      </c>
-      <c r="Q7">
-        <v>2.658335188189453</v>
-      </c>
-      <c r="R7">
-        <v>2.658335188189453</v>
-      </c>
-      <c r="S7">
-        <v>0.03070745665293309</v>
-      </c>
-      <c r="T7">
-        <v>0.03070745665293309</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.096548</v>
+      </c>
+      <c r="H14">
+        <v>6.289644</v>
+      </c>
+      <c r="I14">
+        <v>0.6943503672785925</v>
+      </c>
+      <c r="J14">
+        <v>0.7001737508816677</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.006796</v>
+      </c>
+      <c r="N14">
+        <v>12.013592</v>
+      </c>
+      <c r="O14">
+        <v>0.1172526637107182</v>
+      </c>
+      <c r="P14">
+        <v>0.08219975604987897</v>
+      </c>
+      <c r="Q14">
+        <v>12.593536140208</v>
+      </c>
+      <c r="R14">
+        <v>75.561216841248</v>
+      </c>
+      <c r="S14">
+        <v>0.08141443011193049</v>
+      </c>
+      <c r="T14">
+        <v>0.05755411151500182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.096548</v>
+      </c>
+      <c r="H15">
+        <v>6.289644</v>
+      </c>
+      <c r="I15">
+        <v>0.6943503672785925</v>
+      </c>
+      <c r="J15">
+        <v>0.7001737508816677</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.744669</v>
+      </c>
+      <c r="O15">
+        <v>0.03737864813934017</v>
+      </c>
+      <c r="P15">
+        <v>0.0393063448789756</v>
+      </c>
+      <c r="Q15">
+        <v>4.014658100870666</v>
+      </c>
+      <c r="R15">
+        <v>36.131922907836</v>
+      </c>
+      <c r="S15">
+        <v>0.02595387806392812</v>
+      </c>
+      <c r="T15">
+        <v>0.02752127092736078</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.096548</v>
+      </c>
+      <c r="H16">
+        <v>6.289644</v>
+      </c>
+      <c r="I16">
+        <v>0.6943503672785925</v>
+      </c>
+      <c r="J16">
+        <v>0.7001737508816677</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.26104466666667</v>
+      </c>
+      <c r="N16">
+        <v>42.783134</v>
+      </c>
+      <c r="O16">
+        <v>0.2783756056413766</v>
+      </c>
+      <c r="P16">
+        <v>0.2927320303410739</v>
+      </c>
+      <c r="Q16">
+        <v>29.89896467381066</v>
+      </c>
+      <c r="R16">
+        <v>269.090682064296</v>
+      </c>
+      <c r="S16">
+        <v>0.1932902040184905</v>
+      </c>
+      <c r="T16">
+        <v>0.2049632836871159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.096548</v>
+      </c>
+      <c r="H17">
+        <v>6.289644</v>
+      </c>
+      <c r="I17">
+        <v>0.6943503672785925</v>
+      </c>
+      <c r="J17">
+        <v>0.7001737508816677</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>23.52939333333333</v>
+      </c>
+      <c r="N17">
+        <v>70.58817999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.4592937805496555</v>
+      </c>
+      <c r="P17">
+        <v>0.4829805420397951</v>
+      </c>
+      <c r="Q17">
+        <v>49.33050253421332</v>
+      </c>
+      <c r="R17">
+        <v>443.97452280792</v>
+      </c>
+      <c r="S17">
+        <v>0.3189108052134266</v>
+      </c>
+      <c r="T17">
+        <v>0.3381702977228643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.096548</v>
+      </c>
+      <c r="H18">
+        <v>6.289644</v>
+      </c>
+      <c r="I18">
+        <v>0.6943503672785925</v>
+      </c>
+      <c r="J18">
+        <v>0.7001737508816677</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.986849</v>
+      </c>
+      <c r="N18">
+        <v>11.960547</v>
+      </c>
+      <c r="O18">
+        <v>0.0778232963234332</v>
+      </c>
+      <c r="P18">
+        <v>0.0818368099751608</v>
+      </c>
+      <c r="Q18">
+        <v>8.358620297251999</v>
+      </c>
+      <c r="R18">
+        <v>75.227582675268</v>
+      </c>
+      <c r="S18">
+        <v>0.05403663438500658</v>
+      </c>
+      <c r="T18">
+        <v>0.05729998620049861</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.096548</v>
+      </c>
+      <c r="H19">
+        <v>6.289644</v>
+      </c>
+      <c r="I19">
+        <v>0.6943503672785925</v>
+      </c>
+      <c r="J19">
+        <v>0.7001737508816677</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.530533</v>
+      </c>
+      <c r="N19">
+        <v>3.061066</v>
+      </c>
+      <c r="O19">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P19">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q19">
+        <v>3.208835900084</v>
+      </c>
+      <c r="R19">
+        <v>19.253015400504</v>
+      </c>
+      <c r="S19">
+        <v>0.02074441548581029</v>
+      </c>
+      <c r="T19">
+        <v>0.01466480082882626</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.128111</v>
+      </c>
+      <c r="I20">
+        <v>0.01414291808923172</v>
+      </c>
+      <c r="J20">
+        <v>0.01426153203570843</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.006796</v>
+      </c>
+      <c r="N20">
+        <v>12.013592</v>
+      </c>
+      <c r="O20">
+        <v>0.1172526637107182</v>
+      </c>
+      <c r="P20">
+        <v>0.08219975604987897</v>
+      </c>
+      <c r="Q20">
+        <v>0.2565122141186666</v>
+      </c>
+      <c r="R20">
+        <v>1.539073284712</v>
+      </c>
+      <c r="S20">
+        <v>0.001658294818604921</v>
+      </c>
+      <c r="T20">
+        <v>0.001172294454232767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.128111</v>
+      </c>
+      <c r="I21">
+        <v>0.01414291808923172</v>
+      </c>
+      <c r="J21">
+        <v>0.01426153203570843</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N21">
+        <v>5.744669</v>
+      </c>
+      <c r="O21">
+        <v>0.03737864813934017</v>
+      </c>
+      <c r="P21">
+        <v>0.0393063448789756</v>
+      </c>
+      <c r="Q21">
+        <v>0.08177281002877777</v>
+      </c>
+      <c r="R21">
+        <v>0.735955290259</v>
+      </c>
+      <c r="S21">
+        <v>0.0005286431589209018</v>
+      </c>
+      <c r="T21">
+        <v>0.0005605686966981147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.128111</v>
+      </c>
+      <c r="I22">
+        <v>0.01414291808923172</v>
+      </c>
+      <c r="J22">
+        <v>0.01426153203570843</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.26104466666667</v>
+      </c>
+      <c r="N22">
+        <v>42.783134</v>
+      </c>
+      <c r="O22">
+        <v>0.2783756056413766</v>
+      </c>
+      <c r="P22">
+        <v>0.2927320303410739</v>
+      </c>
+      <c r="Q22">
+        <v>0.6089988977637777</v>
+      </c>
+      <c r="R22">
+        <v>5.480990079874</v>
+      </c>
+      <c r="S22">
+        <v>0.003937043388626261</v>
+      </c>
+      <c r="T22">
+        <v>0.004174807228587199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.128111</v>
+      </c>
+      <c r="I23">
+        <v>0.01414291808923172</v>
+      </c>
+      <c r="J23">
+        <v>0.01426153203570843</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>23.52939333333333</v>
+      </c>
+      <c r="N23">
+        <v>70.58817999999999</v>
+      </c>
+      <c r="O23">
+        <v>0.4592937805496555</v>
+      </c>
+      <c r="P23">
+        <v>0.4829805420397951</v>
+      </c>
+      <c r="Q23">
+        <v>1.004791369775555</v>
+      </c>
+      <c r="R23">
+        <v>9.043122327979999</v>
+      </c>
+      <c r="S23">
+        <v>0.006495754317207348</v>
+      </c>
+      <c r="T23">
+        <v>0.006888042472924362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.128111</v>
+      </c>
+      <c r="I24">
+        <v>0.01414291808923172</v>
+      </c>
+      <c r="J24">
+        <v>0.01426153203570843</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.986849</v>
+      </c>
+      <c r="N24">
+        <v>11.960547</v>
+      </c>
+      <c r="O24">
+        <v>0.0778232963234332</v>
+      </c>
+      <c r="P24">
+        <v>0.0818368099751608</v>
+      </c>
+      <c r="Q24">
+        <v>0.1702530707463333</v>
+      </c>
+      <c r="R24">
+        <v>1.532277636717</v>
+      </c>
+      <c r="S24">
+        <v>0.001100648505336324</v>
+      </c>
+      <c r="T24">
+        <v>0.001167118287160939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04270366666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.128111</v>
+      </c>
+      <c r="I25">
+        <v>0.01414291808923172</v>
+      </c>
+      <c r="J25">
+        <v>0.01426153203570843</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.530533</v>
+      </c>
+      <c r="N25">
+        <v>3.061066</v>
+      </c>
+      <c r="O25">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P25">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q25">
+        <v>0.06535937105433334</v>
+      </c>
+      <c r="R25">
+        <v>0.3921562263260001</v>
+      </c>
+      <c r="S25">
+        <v>0.0004225339005359672</v>
+      </c>
+      <c r="T25">
+        <v>0.0002987008961050516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.0753385</v>
+      </c>
+      <c r="H26">
+        <v>0.150677</v>
+      </c>
+      <c r="I26">
+        <v>0.02495116503186106</v>
+      </c>
+      <c r="J26">
+        <v>0.01677361711753432</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.006796</v>
+      </c>
+      <c r="N26">
+        <v>12.013592</v>
+      </c>
+      <c r="O26">
+        <v>0.1172526637107182</v>
+      </c>
+      <c r="P26">
+        <v>0.08219975604987897</v>
+      </c>
+      <c r="Q26">
+        <v>0.452543000446</v>
+      </c>
+      <c r="R26">
+        <v>1.810172001784</v>
+      </c>
+      <c r="S26">
+        <v>0.002925590562671437</v>
+      </c>
+      <c r="T26">
+        <v>0.001378787235135396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.0753385</v>
+      </c>
+      <c r="H27">
+        <v>0.150677</v>
+      </c>
+      <c r="I27">
+        <v>0.02495116503186106</v>
+      </c>
+      <c r="J27">
+        <v>0.01677361711753432</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.914889666666667</v>
+      </c>
+      <c r="N27">
+        <v>5.744669</v>
+      </c>
+      <c r="O27">
+        <v>0.03737864813934017</v>
+      </c>
+      <c r="P27">
+        <v>0.0393063448789756</v>
+      </c>
+      <c r="Q27">
+        <v>0.1442649151521667</v>
+      </c>
+      <c r="R27">
+        <v>0.8655894909130001</v>
+      </c>
+      <c r="S27">
+        <v>0.000932640818392543</v>
+      </c>
+      <c r="T27">
+        <v>0.0006593095792896928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.0753385</v>
+      </c>
+      <c r="H28">
+        <v>0.150677</v>
+      </c>
+      <c r="I28">
+        <v>0.02495116503186106</v>
+      </c>
+      <c r="J28">
+        <v>0.01677361711753432</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>14.26104466666667</v>
+      </c>
+      <c r="N28">
+        <v>42.783134</v>
+      </c>
+      <c r="O28">
+        <v>0.2783756056413766</v>
+      </c>
+      <c r="P28">
+        <v>0.2927320303410739</v>
+      </c>
+      <c r="Q28">
+        <v>1.074405713619667</v>
+      </c>
+      <c r="R28">
+        <v>6.446434281718</v>
+      </c>
+      <c r="S28">
+        <v>0.00694579567720226</v>
+      </c>
+      <c r="T28">
+        <v>0.004910174994979615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.0753385</v>
+      </c>
+      <c r="H29">
+        <v>0.150677</v>
+      </c>
+      <c r="I29">
+        <v>0.02495116503186106</v>
+      </c>
+      <c r="J29">
+        <v>0.01677361711753432</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.52939333333333</v>
+      </c>
+      <c r="N29">
+        <v>70.58817999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.4592937805496555</v>
+      </c>
+      <c r="P29">
+        <v>0.4829805420397951</v>
+      </c>
+      <c r="Q29">
+        <v>1.772669199643333</v>
+      </c>
+      <c r="R29">
+        <v>10.63601519786</v>
+      </c>
+      <c r="S29">
+        <v>0.01145991491660183</v>
+      </c>
+      <c r="T29">
+        <v>0.008101330687394713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.0753385</v>
+      </c>
+      <c r="H30">
+        <v>0.150677</v>
+      </c>
+      <c r="I30">
+        <v>0.02495116503186106</v>
+      </c>
+      <c r="J30">
+        <v>0.01677361711753432</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.986849</v>
+      </c>
+      <c r="N30">
+        <v>11.960547</v>
+      </c>
+      <c r="O30">
+        <v>0.0778232963234332</v>
+      </c>
+      <c r="P30">
+        <v>0.0818368099751608</v>
+      </c>
+      <c r="Q30">
+        <v>0.3003632233865</v>
+      </c>
+      <c r="R30">
+        <v>1.802179340319</v>
+      </c>
+      <c r="S30">
+        <v>0.001941781909889408</v>
+      </c>
+      <c r="T30">
+        <v>0.001372699316643761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.0753385</v>
+      </c>
+      <c r="H31">
+        <v>0.150677</v>
+      </c>
+      <c r="I31">
+        <v>0.02495116503186106</v>
+      </c>
+      <c r="J31">
+        <v>0.01677361711753432</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.530533</v>
+      </c>
+      <c r="N31">
+        <v>3.061066</v>
+      </c>
+      <c r="O31">
+        <v>0.02987600563547634</v>
+      </c>
+      <c r="P31">
+        <v>0.02094451671511558</v>
+      </c>
+      <c r="Q31">
+        <v>0.1153080604205</v>
+      </c>
+      <c r="R31">
+        <v>0.4612322416820001</v>
+      </c>
+      <c r="S31">
+        <v>0.0007454411471035812</v>
+      </c>
+      <c r="T31">
+        <v>0.0003513153040911465</v>
       </c>
     </row>
   </sheetData>
